--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Arslan Khalid.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Arslan Khalid.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F75C9-D15C-4CE1-BC17-38F7E9CACFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F77375-4DE2-4D1A-B6EC-2BA11FC49850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
-    <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
+    <sheet name="Consolidated" sheetId="6" r:id="rId3"/>
+    <sheet name="November 2024" sheetId="5" r:id="rId4"/>
     <sheet name="October 2024" sheetId="4" r:id="rId5"/>
     <sheet name="September 2024" sheetId="1" r:id="rId6"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
   <si>
     <t>Employee Name</t>
   </si>
@@ -466,7 +466,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,12 +569,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -864,7 +858,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1021,12 +1015,6 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1067,19 +1055,10 @@
     <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,124 +1067,115 @@
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="4" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1239,6 +1209,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1264,42 +1270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3377,18 +3347,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="140"/>
+      <c r="C2" s="132"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
@@ -3396,11 +3366,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3408,11 +3378,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3420,11 +3390,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3432,11 +3402,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3444,11 +3414,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3456,12 +3426,12 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="130">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.54246575342465753</v>
-      </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
+        <v>0.55890410958904113</v>
+      </c>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -3469,11 +3439,11 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3757,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49913367-0C81-47D2-A602-F183CADA5D5D}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,13 +3738,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -3791,12 +3761,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
@@ -3816,13 +3786,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="144"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -3831,7 +3801,9 @@
       <c r="C7" s="35">
         <v>0.7</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="35">
+        <v>0.7</v>
+      </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
@@ -3842,7 +3814,9 @@
       <c r="C8" s="35">
         <v>0.8</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="35">
+        <v>0.8</v>
+      </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
     </row>
@@ -3853,7 +3827,9 @@
       <c r="C9" s="35">
         <v>0.7</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="35">
+        <v>0.7</v>
+      </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
     </row>
@@ -3864,7 +3840,9 @@
       <c r="C10" s="35">
         <v>0.8</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="35">
+        <v>0.8</v>
+      </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
@@ -3875,7 +3853,9 @@
       <c r="C11" s="35">
         <v>0.7</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <v>0.7</v>
+      </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
     </row>
@@ -3886,7 +3866,9 @@
       <c r="C12" s="35">
         <v>0.7</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35">
+        <v>0.75</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
     </row>
@@ -3897,7 +3879,9 @@
       <c r="C13" s="35">
         <v>0.6</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="35">
+        <v>0.6</v>
+      </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
@@ -3908,18 +3892,20 @@
       <c r="C14" s="35">
         <v>0.6</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="35">
+        <v>0.6</v>
+      </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -3928,7 +3914,9 @@
       <c r="C16" s="35">
         <v>0.3</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="35">
+        <v>0.35</v>
+      </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
@@ -3939,7 +3927,9 @@
       <c r="C17" s="35">
         <v>0.5</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="35">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
     </row>
@@ -3950,7 +3940,9 @@
       <c r="C18" s="35">
         <v>0.7</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="35">
+        <v>0.7</v>
+      </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
     </row>
@@ -3961,7 +3953,9 @@
       <c r="C19" s="35">
         <v>0.7</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="35">
+        <v>0.75</v>
+      </c>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
@@ -3972,7 +3966,9 @@
       <c r="C20" s="35">
         <v>0.6</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="35">
+        <v>0.6</v>
+      </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
     </row>
@@ -3983,7 +3979,9 @@
       <c r="C21" s="35">
         <v>0.7</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="35">
+        <v>0.7</v>
+      </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
     </row>
@@ -3997,13 +3995,13 @@
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
@@ -4086,7 +4084,7 @@
     <mergeCell ref="B6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C14">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4100,7 +4098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C22">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4114,7 +4112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C31">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4127,22 +4125,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EDD05524-BD41-4BD9-9232-C2FFFF02BE4F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D22">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4156,7 +4140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D31">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4170,7 +4154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E14">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4184,7 +4168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E22">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4198,7 +4182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E31">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4212,7 +4196,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F14">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4226,7 +4210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F22">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4240,7 +4224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="1"/>
@@ -4249,6 +4233,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{67C101B0-2938-4AFD-A989-E73D642D2908}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88A21638-A94D-4766-8B0A-92731ACFA2C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4303,21 +4315,6 @@
           <xm:sqref>C24:C31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EDD05524-BD41-4BD9-9232-C2FFFF02BE4F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA0C51F5-D05B-4CB3-B10C-54EF65E8F66F}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4330,7 +4327,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D22</xm:sqref>
+          <xm:sqref>D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{34CA936F-3F9A-4F3A-8517-BE86F1BFA978}">
@@ -4437,6 +4434,36 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88A21638-A94D-4766-8B0A-92731ACFA2C5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4444,11 +4471,1813 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45441E2-37BA-4D31-916A-0A75EAD3DDAC}">
+  <dimension ref="B2:W50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C45" sqref="C45"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="33" customWidth="1"/>
+    <col min="23" max="23" width="2.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+    </row>
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+    </row>
+    <row r="6" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="90"/>
+      <c r="N6" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="92"/>
+    </row>
+    <row r="7" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="148"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="U7" s="92"/>
+      <c r="V7" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="92"/>
+    </row>
+    <row r="8" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="105">
+        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="92"/>
+    </row>
+    <row r="9" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="85">
+        <f>IF(N9&gt;0,N9-O9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103">
+        <v>3</v>
+      </c>
+      <c r="T9" s="109">
+        <f>IF(R9=0,0,(S9-R9))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="110"/>
+      <c r="V9" s="105">
+        <f t="shared" ref="V9:V48" si="0">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="92"/>
+    </row>
+    <row r="10" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="85">
+        <f t="shared" ref="P10:P47" si="1">IF(N10&gt;0,N10-O10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
+      <c r="T10" s="109">
+        <f t="shared" ref="T10:T43" si="2">IF(R10=0,0,(S10-R10))</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="110"/>
+      <c r="V10" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="92"/>
+    </row>
+    <row r="11" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="101">
+        <v>70</v>
+      </c>
+      <c r="O11" s="103"/>
+      <c r="P11" s="85">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103">
+        <v>27</v>
+      </c>
+      <c r="T11" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="101"/>
+      <c r="V11" s="105">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="W11" s="103"/>
+    </row>
+    <row r="12" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101">
+        <v>1</v>
+      </c>
+      <c r="K12" s="103"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="101">
+        <v>32</v>
+      </c>
+      <c r="O12" s="103">
+        <v>12</v>
+      </c>
+      <c r="P12" s="85">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103">
+        <v>13</v>
+      </c>
+      <c r="T12" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="101"/>
+      <c r="V12" s="105">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="W12" s="103"/>
+    </row>
+    <row r="13" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="101">
+        <v>62</v>
+      </c>
+      <c r="O13" s="103">
+        <v>5</v>
+      </c>
+      <c r="P13" s="85">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="105">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W13" s="103"/>
+    </row>
+    <row r="14" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="112">
+        <v>2</v>
+      </c>
+      <c r="P14" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103">
+        <v>3</v>
+      </c>
+      <c r="T14" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="114"/>
+      <c r="V14" s="105">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W14" s="112"/>
+    </row>
+    <row r="15" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="114">
+        <v>30</v>
+      </c>
+      <c r="O15" s="112">
+        <v>6</v>
+      </c>
+      <c r="P15" s="85">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103">
+        <v>5</v>
+      </c>
+      <c r="T15" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="92"/>
+      <c r="V15" s="105">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W15" s="92"/>
+    </row>
+    <row r="16" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114">
+        <v>3</v>
+      </c>
+      <c r="L16" s="115">
+        <v>13</v>
+      </c>
+      <c r="M16" s="90"/>
+      <c r="N16" s="114">
+        <v>56</v>
+      </c>
+      <c r="O16" s="112">
+        <v>9</v>
+      </c>
+      <c r="P16" s="85">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103">
+        <v>4</v>
+      </c>
+      <c r="T16" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="92"/>
+      <c r="V16" s="105">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="W16" s="92"/>
+    </row>
+    <row r="17" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="100"/>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="112">
+        <v>4</v>
+      </c>
+      <c r="P17" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="92"/>
+      <c r="V17" s="105">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W17" s="92"/>
+    </row>
+    <row r="18" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="100"/>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114">
+        <v>2</v>
+      </c>
+      <c r="L18" s="115">
+        <v>6</v>
+      </c>
+      <c r="M18" s="90"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="112">
+        <v>25</v>
+      </c>
+      <c r="P18" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103">
+        <v>8</v>
+      </c>
+      <c r="T18" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="92"/>
+      <c r="V18" s="105">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="W18" s="92"/>
+    </row>
+    <row r="19" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114">
+        <v>1</v>
+      </c>
+      <c r="L19" s="115"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="112">
+        <v>14</v>
+      </c>
+      <c r="P19" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="103">
+        <v>9</v>
+      </c>
+      <c r="T19" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="92"/>
+      <c r="V19" s="105">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="W19" s="92"/>
+    </row>
+    <row r="20" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="103">
+        <v>2</v>
+      </c>
+      <c r="T20" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="92"/>
+      <c r="V20" s="105">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W20" s="92"/>
+    </row>
+    <row r="21" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103">
+        <v>12</v>
+      </c>
+      <c r="T21" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="114"/>
+      <c r="V21" s="105">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W21" s="116"/>
+    </row>
+    <row r="22" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="112">
+        <v>3</v>
+      </c>
+      <c r="P22" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="114"/>
+      <c r="V22" s="105">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W22" s="116"/>
+    </row>
+    <row r="23" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112">
+        <v>1</v>
+      </c>
+      <c r="K23" s="112"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="112">
+        <v>10</v>
+      </c>
+      <c r="P23" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="114"/>
+      <c r="V23" s="105">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="W23" s="116"/>
+    </row>
+    <row r="24" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112">
+        <v>6</v>
+      </c>
+      <c r="L24" s="113"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="112">
+        <v>5</v>
+      </c>
+      <c r="P24" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="103">
+        <v>2</v>
+      </c>
+      <c r="T24" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="114"/>
+      <c r="V24" s="105">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W24" s="116"/>
+    </row>
+    <row r="25" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="114"/>
+      <c r="V25" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="116"/>
+    </row>
+    <row r="26" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112">
+        <v>3</v>
+      </c>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="114"/>
+      <c r="V26" s="105">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W26" s="116"/>
+    </row>
+    <row r="27" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="112">
+        <v>2</v>
+      </c>
+      <c r="L27" s="113"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="114">
+        <v>40</v>
+      </c>
+      <c r="O27" s="112">
+        <v>35</v>
+      </c>
+      <c r="P27" s="85">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="114"/>
+      <c r="V27" s="105">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="W27" s="116"/>
+    </row>
+    <row r="28" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="112"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="114">
+        <v>6</v>
+      </c>
+      <c r="O28" s="112">
+        <v>8</v>
+      </c>
+      <c r="P28" s="85">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="114"/>
+      <c r="V28" s="105">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W28" s="116"/>
+    </row>
+    <row r="29" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="114">
+        <v>12</v>
+      </c>
+      <c r="O29" s="112">
+        <v>8</v>
+      </c>
+      <c r="P29" s="85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="114"/>
+      <c r="V29" s="105">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W29" s="116"/>
+    </row>
+    <row r="30" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="114"/>
+      <c r="V30" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="116"/>
+    </row>
+    <row r="31" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103">
+        <v>21</v>
+      </c>
+      <c r="T31" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="114"/>
+      <c r="V31" s="105">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W31" s="116"/>
+    </row>
+    <row r="32" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="114"/>
+      <c r="V32" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="116"/>
+    </row>
+    <row r="33" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="114"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103">
+        <v>37.5</v>
+      </c>
+      <c r="T33" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="114"/>
+      <c r="V33" s="105">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="W33" s="116"/>
+    </row>
+    <row r="34" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="114"/>
+      <c r="V34" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="116"/>
+    </row>
+    <row r="35" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="112"/>
+      <c r="P35" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="114"/>
+      <c r="V35" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="116"/>
+    </row>
+    <row r="36" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="114"/>
+      <c r="V36" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="116"/>
+    </row>
+    <row r="37" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="112"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="103"/>
+      <c r="T37" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="114"/>
+      <c r="V37" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="116"/>
+    </row>
+    <row r="38" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="112"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103"/>
+      <c r="T38" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="114"/>
+      <c r="V38" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="116"/>
+    </row>
+    <row r="39" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="112"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+      <c r="K39" s="112"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103"/>
+      <c r="T39" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="114"/>
+      <c r="V39" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="116"/>
+    </row>
+    <row r="40" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="114"/>
+      <c r="V40" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="116"/>
+    </row>
+    <row r="41" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="114"/>
+      <c r="V41" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="116"/>
+    </row>
+    <row r="42" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="112"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="114"/>
+      <c r="V42" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="116"/>
+    </row>
+    <row r="43" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="112"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="112"/>
+      <c r="K43" s="112"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="114"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="112"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="114"/>
+      <c r="V43" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="116"/>
+    </row>
+    <row r="44" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="112"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="109"/>
+      <c r="U44" s="114"/>
+      <c r="V44" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="116"/>
+    </row>
+    <row r="45" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="109"/>
+      <c r="U45" s="114"/>
+      <c r="V45" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="116"/>
+    </row>
+    <row r="46" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="113"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="114"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="109"/>
+      <c r="U46" s="114"/>
+      <c r="V46" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="116"/>
+    </row>
+    <row r="47" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="109"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="116"/>
+    </row>
+    <row r="48" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="85">
+        <f>N48-O48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="112"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="109"/>
+      <c r="U48" s="114"/>
+      <c r="V48" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="116"/>
+    </row>
+    <row r="49" spans="2:23" s="94" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119">
+        <f>SUM(D8:D48)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="119">
+        <f t="shared" ref="E49:P49" si="3">SUM(E8:E48)</f>
+        <v>3</v>
+      </c>
+      <c r="F49" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="119">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="119">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="K49" s="119">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L49" s="120">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="M49" s="90"/>
+      <c r="N49" s="121">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="O49" s="119">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="P49" s="122">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="123">
+        <f>SUM(R8:R48)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="123">
+        <f>SUM(S8:S48)</f>
+        <v>146.5</v>
+      </c>
+      <c r="T49" s="123">
+        <f>SUM(T8:T48)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="121"/>
+      <c r="V49" s="124">
+        <f>SUM(V8:V48)</f>
+        <v>331</v>
+      </c>
+      <c r="W49" s="116"/>
+    </row>
+    <row r="50" spans="2:23" s="125" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="126"/>
+      <c r="M50" s="126"/>
+      <c r="N50" s="126"/>
+      <c r="O50" s="126"/>
+      <c r="P50" s="127"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="126"/>
+      <c r="S50" s="126"/>
+      <c r="T50" s="126"/>
+      <c r="U50" s="126"/>
+      <c r="V50" s="128"/>
+      <c r="W50" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7711944-9C3B-4B01-99AE-D20CEF7A29FD}">
-  <dimension ref="B2:Y39"/>
+  <dimension ref="B2:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C45" sqref="C45"/>
+      <selection pane="topRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4465,7 +6294,7 @@
     <col min="11" max="11" width="1.7109375" style="51" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="51" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="51" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="86" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="82" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="51" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="51"/>
     <col min="19" max="19" width="2.28515625" style="51" customWidth="1"/>
@@ -4475,71 +6304,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="152" t="str">
+      <c r="B3" s="156" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="151"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="153"/>
-      <c r="S4" s="153"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
@@ -4548,41 +6377,41 @@
       <c r="C6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
       <c r="H6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="154" t="s">
+      <c r="L6" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="P6" s="154" t="s">
+      <c r="M6" s="158"/>
+      <c r="N6" s="158"/>
+      <c r="P6" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="158"/>
       <c r="T6" s="56" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="51"/>
-      <c r="V6" s="148" t="s">
+      <c r="V6" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="149"/>
-      <c r="X6" s="149"/>
-      <c r="Y6" s="150"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="154"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
@@ -4602,23 +6431,21 @@
       <c r="H7" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
       <c r="L7" s="54" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="80" t="s">
         <v>115</v>
       </c>
       <c r="P7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="54" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q7" s="54"/>
       <c r="R7" s="54" t="s">
         <v>115</v>
       </c>
@@ -4639,11 +6466,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="61" t="s">
+    <row r="8" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
       <c r="F8" s="63"/>
@@ -4653,7 +6480,7 @@
       <c r="J8" s="63"/>
       <c r="L8" s="63"/>
       <c r="M8" s="63"/>
-      <c r="N8" s="83"/>
+      <c r="N8" s="81"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
       <c r="R8" s="64"/>
@@ -4664,9 +6491,9 @@
       <c r="X8" s="63"/>
       <c r="Y8" s="64"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="62"/>
-      <c r="C9" s="61" t="s">
+    <row r="9" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="26"/>
@@ -4675,30 +6502,24 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="63"/>
-      <c r="J9" s="63">
+      <c r="J9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="85">
+        <f>IF(L9&gt;0,L9-M9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="63">
         <v>3</v>
       </c>
-      <c r="L9" s="63">
-        <v>32</v>
-      </c>
-      <c r="M9" s="63">
-        <v>33</v>
-      </c>
-      <c r="N9" s="84">
-        <f>L9-M9</f>
-        <v>-1</v>
-      </c>
-      <c r="P9" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="63">
-        <v>13</v>
-      </c>
-      <c r="R9" s="90"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="66"/>
       <c r="T9" s="65">
-        <f>D9+E9+F9+G9+I9+J9+M9+Q9</f>
-        <v>49</v>
+        <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
+        <v>3</v>
       </c>
       <c r="U9" s="51"/>
       <c r="V9" s="63">
@@ -4715,9 +6536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="62"/>
-      <c r="C10" s="61" t="s">
+    <row r="10" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="26"/>
@@ -4727,26 +6548,26 @@
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
-      <c r="L10" s="63">
-        <v>30</v>
-      </c>
-      <c r="M10" s="89">
+      <c r="L10" s="63"/>
+      <c r="M10" s="84">
         <v>6</v>
       </c>
-      <c r="N10" s="88">
-        <f>L10-M10</f>
-        <v>24</v>
+      <c r="N10" s="85">
+        <f t="shared" ref="N10:N30" si="0">IF(L10&gt;0,L10-M10,0)</f>
+        <v>0</v>
       </c>
       <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="90">
-        <f t="shared" ref="R10:R15" si="0">P10-Q10</f>
-        <v>0</v>
+      <c r="Q10" s="63">
+        <v>5</v>
+      </c>
+      <c r="R10" s="85">
+        <f t="shared" ref="R10" si="1">P10-Q10</f>
+        <v>-5</v>
       </c>
       <c r="S10" s="66"/>
       <c r="T10" s="65">
-        <f t="shared" ref="T10:T29" si="1">D10+E10+F10+G10+I10+J10+M10+Q10</f>
-        <v>6</v>
+        <f t="shared" ref="T10:T30" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <v>11</v>
       </c>
       <c r="U10" s="51"/>
       <c r="V10" s="63"/>
@@ -4754,10 +6575,10 @@
       <c r="X10" s="63"/>
       <c r="Y10" s="64"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="62"/>
-      <c r="C11" s="61" t="s">
-        <v>89</v>
+    <row r="11" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -4765,38 +6586,38 @@
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="L11" s="63">
-        <v>4</v>
-      </c>
-      <c r="M11" s="67">
-        <v>6</v>
-      </c>
-      <c r="N11" s="84">
-        <f>L11-M11</f>
-        <v>-2</v>
+      <c r="J11" s="63">
+        <v>1</v>
+      </c>
+      <c r="L11" s="63"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Q11" s="63">
+        <v>14</v>
+      </c>
+      <c r="R11" s="85"/>
       <c r="S11" s="66"/>
       <c r="T11" s="65">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="U11" s="51"/>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
-      <c r="Y11" s="64"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="62"/>
-      <c r="C12" s="61" t="s">
-        <v>90</v>
+      <c r="Y11" s="64">
+        <f>SUM(V11:X11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -4805,23 +6626,21 @@
       <c r="H12" s="26"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
-      <c r="L12" s="63">
-        <v>0</v>
-      </c>
-      <c r="M12" s="67">
-        <v>2</v>
-      </c>
-      <c r="N12" s="84"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Q12" s="63">
+        <v>3</v>
+      </c>
+      <c r="R12" s="85"/>
       <c r="S12" s="66"/>
       <c r="T12" s="65">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="U12" s="51"/>
       <c r="V12" s="63"/>
@@ -4829,10 +6648,10 @@
       <c r="X12" s="63"/>
       <c r="Y12" s="64"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B13" s="62"/>
-      <c r="C13" s="61" t="s">
-        <v>91</v>
+    <row r="13" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -4841,21 +6660,23 @@
       <c r="H13" s="26"/>
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="67">
-        <v>2</v>
-      </c>
-      <c r="N13" s="84"/>
+      <c r="L13" s="63">
+        <v>13</v>
+      </c>
+      <c r="M13" s="69"/>
+      <c r="N13" s="85">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Q13" s="63">
+        <v>8</v>
+      </c>
+      <c r="R13" s="85"/>
       <c r="S13" s="66"/>
       <c r="T13" s="65">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="U13" s="51"/>
       <c r="V13" s="63"/>
@@ -4863,10 +6684,10 @@
       <c r="X13" s="63"/>
       <c r="Y13" s="64"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B14" s="62"/>
-      <c r="C14" s="61" t="s">
-        <v>92</v>
+    <row r="14" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -4875,26 +6696,23 @@
       <c r="H14" s="26"/>
       <c r="I14" s="63"/>
       <c r="J14" s="63"/>
-      <c r="L14" s="63">
-        <v>12</v>
-      </c>
-      <c r="M14" s="67">
-        <v>4</v>
-      </c>
-      <c r="N14" s="84">
-        <f>L14-M14</f>
-        <v>8</v>
+      <c r="L14" s="63"/>
+      <c r="M14" s="69">
+        <v>3</v>
+      </c>
+      <c r="N14" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="Q14" s="63">
+        <v>3</v>
+      </c>
+      <c r="R14" s="85"/>
       <c r="S14" s="66"/>
       <c r="T14" s="65">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="U14" s="51"/>
       <c r="V14" s="63"/>
@@ -4902,10 +6720,10 @@
       <c r="X14" s="63"/>
       <c r="Y14" s="64"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="62"/>
-      <c r="C15" s="61" t="s">
-        <v>93</v>
+    <row r="15" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -4914,26 +6732,21 @@
       <c r="H15" s="26"/>
       <c r="I15" s="63"/>
       <c r="J15" s="63"/>
-      <c r="L15" s="63">
-        <v>4</v>
-      </c>
+      <c r="L15" s="63"/>
       <c r="M15" s="69">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N15" s="85">
-        <f>L15-M15</f>
-        <v>-18</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
-      <c r="R15" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R15" s="85"/>
       <c r="S15" s="66"/>
       <c r="T15" s="65">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U15" s="51"/>
       <c r="V15" s="63"/>
@@ -4941,10 +6754,10 @@
       <c r="X15" s="63"/>
       <c r="Y15" s="64"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="62"/>
-      <c r="C16" s="62" t="s">
-        <v>103</v>
+    <row r="16" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
@@ -4954,35 +6767,34 @@
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="L16" s="63"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="84">
-        <f>IF(L16=0,0,M16/L16)</f>
+      <c r="M16" s="69">
+        <v>5</v>
+      </c>
+      <c r="N16" s="85">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P16" s="63"/>
       <c r="Q16" s="63">
-        <v>13</v>
-      </c>
-      <c r="R16" s="90"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="85"/>
       <c r="S16" s="66"/>
       <c r="T16" s="65">
-        <f>D16+E16+F16+G16+H16+I16+J16+M16+Q16</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="U16" s="51"/>
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
       <c r="X16" s="63"/>
-      <c r="Y16" s="64">
-        <f>SUM(V16:X16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="62"/>
-      <c r="C17" s="62" t="s">
-        <v>104</v>
-      </c>
+      <c r="Y16" s="64"/>
+    </row>
+    <row r="17" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -4991,17 +6803,18 @@
       <c r="I17" s="63"/>
       <c r="J17" s="63"/>
       <c r="L17" s="63"/>
-      <c r="M17" s="70">
-        <v>5</v>
-      </c>
-      <c r="N17" s="84"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-      <c r="R17" s="90"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="66"/>
       <c r="T17" s="65">
-        <f t="shared" ref="T17:T23" si="2">D17+E17+F17+G17+H17+I17+J17+M17+Q17</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U17" s="51"/>
       <c r="V17" s="63"/>
@@ -5009,10 +6822,10 @@
       <c r="X17" s="63"/>
       <c r="Y17" s="64"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62" t="s">
-        <v>105</v>
+    <row r="18" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -5021,18 +6834,21 @@
       <c r="H18" s="26"/>
       <c r="I18" s="63"/>
       <c r="J18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="70">
-        <v>4</v>
-      </c>
-      <c r="N18" s="84"/>
+      <c r="L18" s="63">
+        <v>6</v>
+      </c>
+      <c r="M18" s="69"/>
+      <c r="N18" s="85">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-      <c r="R18" s="90"/>
+      <c r="R18" s="85"/>
       <c r="S18" s="66"/>
       <c r="T18" s="65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U18" s="51"/>
       <c r="V18" s="63"/>
@@ -5040,36 +6856,33 @@
       <c r="X18" s="63"/>
       <c r="Y18" s="64"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62" t="s">
-        <v>106</v>
+    <row r="19" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="63">
-        <v>3</v>
-      </c>
-      <c r="J19" s="63">
-        <v>13</v>
-      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="L19" s="63"/>
-      <c r="M19" s="70">
-        <v>9</v>
-      </c>
-      <c r="N19" s="84"/>
+      <c r="M19" s="69">
+        <v>35</v>
+      </c>
+      <c r="N19" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="63"/>
-      <c r="Q19" s="63">
-        <v>4</v>
-      </c>
-      <c r="R19" s="90"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="85"/>
       <c r="S19" s="66"/>
       <c r="T19" s="65">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U19" s="51"/>
       <c r="V19" s="63"/>
@@ -5077,39 +6890,33 @@
       <c r="X19" s="63"/>
       <c r="Y19" s="64"/>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62" t="s">
-        <v>107</v>
+    <row r="20" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="63">
-        <v>2</v>
-      </c>
-      <c r="J20" s="63">
-        <v>6</v>
-      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
       <c r="L20" s="63"/>
-      <c r="M20" s="71">
-        <v>25</v>
-      </c>
-      <c r="N20" s="84">
-        <f>IF(L20=0,0,M20/L20)</f>
+      <c r="M20" s="69">
+        <v>8</v>
+      </c>
+      <c r="N20" s="85">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P20" s="63"/>
-      <c r="Q20" s="63">
-        <v>2</v>
-      </c>
-      <c r="R20" s="90"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="85"/>
       <c r="S20" s="66"/>
       <c r="T20" s="65">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="U20" s="51"/>
       <c r="V20" s="63"/>
@@ -5117,10 +6924,10 @@
       <c r="X20" s="63"/>
       <c r="Y20" s="64"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62" t="s">
-        <v>108</v>
+    <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -5130,17 +6937,20 @@
       <c r="I21" s="63"/>
       <c r="J21" s="63"/>
       <c r="L21" s="63"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="84"/>
+      <c r="M21" s="69">
+        <v>8</v>
+      </c>
+      <c r="N21" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P21" s="63"/>
-      <c r="Q21" s="63">
-        <v>3</v>
-      </c>
-      <c r="R21" s="90"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="66"/>
       <c r="T21" s="65">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U21" s="51"/>
       <c r="V21" s="63"/>
@@ -5148,39 +6958,33 @@
       <c r="X21" s="63"/>
       <c r="Y21" s="64"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62" t="s">
-        <v>109</v>
-      </c>
+    <row r="22" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="63">
-        <v>1</v>
-      </c>
+      <c r="I22" s="63"/>
       <c r="J22" s="63"/>
-      <c r="L22" s="63">
-        <v>56</v>
-      </c>
-      <c r="M22" s="71">
-        <v>14</v>
+      <c r="L22" s="63"/>
+      <c r="M22" s="67">
+        <v>4</v>
       </c>
       <c r="N22" s="85">
-        <f>L22-M22</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P22" s="63"/>
-      <c r="Q22" s="63">
-        <v>9</v>
-      </c>
-      <c r="R22" s="90"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="66"/>
       <c r="T22" s="65">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="U22" s="51"/>
       <c r="V22" s="63"/>
@@ -5188,10 +6992,10 @@
       <c r="X22" s="63"/>
       <c r="Y22" s="64"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62" t="s">
-        <v>110</v>
+    <row r="23" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -5199,22 +7003,22 @@
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="J23" s="63">
+        <v>1</v>
+      </c>
       <c r="L23" s="63"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="84">
-        <f>IF(L23=0,0,M23/L23)</f>
+      <c r="M23" s="67"/>
+      <c r="N23" s="85">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P23" s="63"/>
-      <c r="Q23" s="63">
-        <v>2</v>
-      </c>
-      <c r="R23" s="90"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="85"/>
       <c r="S23" s="66"/>
       <c r="T23" s="65">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23" s="51"/>
       <c r="V23" s="63"/>
@@ -5222,11 +7026,11 @@
       <c r="X23" s="63"/>
       <c r="Y23" s="64"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B24" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="61"/>
+    <row r="24" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -5235,23 +7039,31 @@
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="84"/>
+      <c r="M24" s="67">
+        <v>3</v>
+      </c>
+      <c r="N24" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P24" s="63"/>
       <c r="Q24" s="63"/>
-      <c r="R24" s="90"/>
+      <c r="R24" s="85"/>
       <c r="S24" s="66"/>
-      <c r="T24" s="65"/>
+      <c r="T24" s="65">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="U24" s="51"/>
       <c r="V24" s="63"/>
       <c r="W24" s="63"/>
       <c r="X24" s="63"/>
       <c r="Y24" s="64"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B25" s="62"/>
-      <c r="C25" s="61" t="s">
-        <v>94</v>
+    <row r="25" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -5261,17 +7073,18 @@
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="L25" s="63"/>
-      <c r="M25" s="67">
-        <v>6</v>
-      </c>
-      <c r="N25" s="84"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P25" s="63"/>
       <c r="Q25" s="63"/>
-      <c r="R25" s="90"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="66"/>
       <c r="T25" s="65">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U25" s="51"/>
       <c r="V25" s="63"/>
@@ -5279,11 +7092,9 @@
       <c r="X25" s="63"/>
       <c r="Y25" s="64"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B26" s="62"/>
-      <c r="C26" s="61" t="s">
-        <v>95</v>
-      </c>
+    <row r="26" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26">
         <v>3</v>
@@ -5295,13 +7106,16 @@
       <c r="J26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="67"/>
-      <c r="N26" s="84"/>
+      <c r="N26" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P26" s="63"/>
       <c r="Q26" s="63"/>
-      <c r="R26" s="90"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="66"/>
       <c r="T26" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U26" s="51"/>
@@ -5310,33 +7124,31 @@
       <c r="X26" s="63"/>
       <c r="Y26" s="64"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="62"/>
-      <c r="C27" s="61" t="s">
-        <v>96</v>
-      </c>
+    <row r="27" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="J27" s="63">
+        <v>0.5</v>
+      </c>
       <c r="L27" s="63"/>
       <c r="M27" s="67"/>
-      <c r="N27" s="84"/>
-      <c r="P27" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="63">
-        <f>79+17</f>
-        <v>96</v>
-      </c>
-      <c r="R27" s="90"/>
+      <c r="N27" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="85"/>
       <c r="S27" s="66"/>
       <c r="T27" s="65">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="U27" s="51"/>
       <c r="V27" s="63"/>
@@ -5344,11 +7156,11 @@
       <c r="X27" s="63"/>
       <c r="Y27" s="64"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -5357,14 +7169,17 @@
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
       <c r="L28" s="63"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="84"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P28" s="63"/>
       <c r="Q28" s="63"/>
-      <c r="R28" s="90"/>
+      <c r="R28" s="85"/>
       <c r="S28" s="66"/>
       <c r="T28" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U28" s="51"/>
@@ -5379,26 +7194,25 @@
         <v>112</v>
       </c>
       <c r="D29" s="26"/>
-      <c r="E29" s="26">
-        <v>14</v>
-      </c>
+      <c r="E29" s="26"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
       <c r="L29" s="63"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="84"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P29" s="63"/>
-      <c r="Q29" s="63">
-        <v>2</v>
-      </c>
-      <c r="R29" s="90"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="85"/>
       <c r="S29" s="66"/>
       <c r="T29" s="65">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="U29" s="51"/>
       <c r="V29" s="63"/>
@@ -5418,12 +7232,18 @@
       <c r="J30" s="63"/>
       <c r="L30" s="63"/>
       <c r="M30" s="67"/>
-      <c r="N30" s="84"/>
+      <c r="N30" s="85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P30" s="63"/>
       <c r="Q30" s="63"/>
-      <c r="R30" s="90"/>
+      <c r="R30" s="85"/>
       <c r="S30" s="66"/>
-      <c r="T30" s="65"/>
+      <c r="T30" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="U30" s="51"/>
       <c r="V30" s="63"/>
       <c r="W30" s="63"/>
@@ -5431,143 +7251,73 @@
       <c r="Y30" s="64"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="62"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="84"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="65"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="51"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="64"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="64"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="T33" s="72"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-    </row>
-    <row r="34" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="73" t="s">
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+    </row>
+    <row r="32" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74">
-        <f>SUM(D8:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="74">
-        <f>SUM(E8:E27)</f>
-        <v>3</v>
-      </c>
-      <c r="F34" s="74">
-        <f>SUM(F8:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="74">
-        <f>SUM(G8:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74">
-        <f>SUM(I8:I27)</f>
-        <v>6</v>
-      </c>
-      <c r="J34" s="74">
-        <f>SUM(J8:J27)</f>
-        <v>22</v>
-      </c>
-      <c r="L34" s="74">
-        <f>SUM(L8:L27)</f>
-        <v>138</v>
-      </c>
-      <c r="M34" s="74">
-        <f>SUM(M8:M27)</f>
-        <v>138</v>
-      </c>
-      <c r="N34" s="87">
-        <f t="shared" ref="N34" si="3">IF(L34=0,0,(M34-L34)/L34)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74">
-        <f>SUM(P8:P27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="74">
-        <f>SUM(Q8:Q27)</f>
-        <v>142</v>
-      </c>
-      <c r="R34" s="75">
-        <f t="shared" ref="R34" si="4">IF(P34=0,0,(Q34-P34)/P34)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="74"/>
-      <c r="T34" s="76">
-        <f>SUM(T8:T32)</f>
-        <v>327</v>
-      </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74">
-        <f>SUM(V8:V27)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="74">
-        <f>SUM(W8:W27)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="74">
-        <f>SUM(X8:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="74">
-        <f>SUM(Y8:Y27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="T39" s="51"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72">
+        <f>SUM(M8:M24)</f>
+        <v>82</v>
+      </c>
+      <c r="N32" s="83">
+        <f t="shared" ref="N32" si="3">IF(L32=0,0,(M32-L32)/L32)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72">
+        <f>SUM(P8:P23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="72">
+        <f>SUM(Q8:Q23)</f>
+        <v>38</v>
+      </c>
+      <c r="R32" s="73">
+        <f t="shared" ref="R32" si="4">IF(P32=0,0,(Q32-P32)/P32)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="72"/>
+      <c r="T32" s="74">
+        <f>SUM(T8:T30)</f>
+        <v>125.5</v>
+      </c>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72">
+        <f>SUM(V8:V23)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="72">
+        <f>SUM(W8:W23)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="72">
+        <f>SUM(X8:X23)</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="72">
+        <f>SUM(Y8:Y23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T37" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5584,7 +7334,7 @@
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V31">
+  <conditionalFormatting sqref="V9:V30">
     <cfRule type="expression" priority="2">
       <formula>V9/$AR9</formula>
     </cfRule>
@@ -5593,1802 +7343,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45441E2-37BA-4D31-916A-0A75EAD3DDAC}">
-  <dimension ref="B2:W57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="33" customWidth="1"/>
-    <col min="23" max="23" width="2.28515625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-    </row>
-    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-    </row>
-    <row r="6" spans="2:23" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="163" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="168" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="97"/>
-    </row>
-    <row r="7" spans="2:23" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="96" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="97"/>
-      <c r="V7" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="W7" s="97"/>
-    </row>
-    <row r="8" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="111">
-        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="97"/>
-    </row>
-    <row r="9" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="115">
-        <f>N9-O9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108">
-        <v>3</v>
-      </c>
-      <c r="T9" s="116">
-        <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="117"/>
-      <c r="V9" s="111">
-        <f t="shared" ref="V9:V55" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
-        <v>3</v>
-      </c>
-      <c r="W9" s="97"/>
-    </row>
-    <row r="10" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="97"/>
-    </row>
-    <row r="11" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108">
-        <v>27</v>
-      </c>
-      <c r="T11" s="116"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="111">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="W11" s="108"/>
-    </row>
-    <row r="12" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106">
-        <v>1</v>
-      </c>
-      <c r="K12" s="108"/>
-      <c r="L12" s="118">
-        <v>3</v>
-      </c>
-      <c r="M12" s="95"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="108">
-        <v>33</v>
-      </c>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108">
-        <v>13</v>
-      </c>
-      <c r="T12" s="116"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="111">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="W12" s="108"/>
-    </row>
-    <row r="13" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="108">
-        <v>5</v>
-      </c>
-      <c r="P13" s="115">
-        <f t="shared" ref="P13" si="2">IF(N13=0,0,(O13-N13)/N13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="116">
-        <f t="shared" ref="T13" si="3">IF(R13=0,0,(S13-R13)/R13)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="106"/>
-      <c r="V13" s="111">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W13" s="108"/>
-    </row>
-    <row r="14" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="119">
-        <v>2</v>
-      </c>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="111">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W14" s="119"/>
-    </row>
-    <row r="15" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="119">
-        <v>18</v>
-      </c>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108">
-        <v>3</v>
-      </c>
-      <c r="T15" s="116"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="111">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="W15" s="97"/>
-    </row>
-    <row r="16" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="97"/>
-    </row>
-    <row r="17" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
-      <c r="C17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="119">
-        <v>8</v>
-      </c>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="111">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W17" s="97"/>
-    </row>
-    <row r="18" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121">
-        <v>3</v>
-      </c>
-      <c r="L18" s="123">
-        <v>13</v>
-      </c>
-      <c r="M18" s="95"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="119">
-        <v>9</v>
-      </c>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108">
-        <v>4</v>
-      </c>
-      <c r="T18" s="116"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="111">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="W18" s="97"/>
-    </row>
-    <row r="19" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="119">
-        <v>4</v>
-      </c>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="111">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W19" s="97"/>
-    </row>
-    <row r="20" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="119">
-        <v>2</v>
-      </c>
-      <c r="P20" s="115">
-        <f>N20-O20</f>
-        <v>-2</v>
-      </c>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="111">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W20" s="97"/>
-    </row>
-    <row r="21" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="119">
-        <v>6</v>
-      </c>
-      <c r="P21" s="115">
-        <f>N21-O21</f>
-        <v>-6</v>
-      </c>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="111">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W21" s="97"/>
-    </row>
-    <row r="22" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="119">
-        <v>6</v>
-      </c>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108">
-        <v>5</v>
-      </c>
-      <c r="T22" s="116"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="111">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W22" s="97"/>
-    </row>
-    <row r="23" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="105"/>
-      <c r="C23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121">
-        <v>2</v>
-      </c>
-      <c r="L23" s="123">
-        <v>6</v>
-      </c>
-      <c r="M23" s="95"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="119">
-        <v>25</v>
-      </c>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="108"/>
-      <c r="S23" s="108">
-        <v>8</v>
-      </c>
-      <c r="T23" s="116"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="111">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="W23" s="97"/>
-    </row>
-    <row r="24" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121">
-        <v>1</v>
-      </c>
-      <c r="L24" s="123"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="119">
-        <v>14</v>
-      </c>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="108"/>
-      <c r="S24" s="108">
-        <v>9</v>
-      </c>
-      <c r="T24" s="116"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="111">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="W24" s="97"/>
-    </row>
-    <row r="25" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108">
-        <v>2</v>
-      </c>
-      <c r="T25" s="116"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="111">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W25" s="97"/>
-    </row>
-    <row r="26" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="108">
-        <v>12</v>
-      </c>
-      <c r="T26" s="116"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="111">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W26" s="124"/>
-    </row>
-    <row r="27" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="119">
-        <v>3</v>
-      </c>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108">
-        <v>3</v>
-      </c>
-      <c r="T27" s="116"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="111">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W27" s="124"/>
-    </row>
-    <row r="28" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119">
-        <v>1</v>
-      </c>
-      <c r="K28" s="119"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="119">
-        <v>10</v>
-      </c>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="111">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W28" s="124"/>
-    </row>
-    <row r="29" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119">
-        <v>6</v>
-      </c>
-      <c r="L29" s="120"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="119">
-        <v>5</v>
-      </c>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="108"/>
-      <c r="S29" s="108">
-        <v>2</v>
-      </c>
-      <c r="T29" s="116"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="111">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="W29" s="124"/>
-    </row>
-    <row r="30" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="124"/>
-    </row>
-    <row r="31" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119">
-        <v>3</v>
-      </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="108"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="111">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W31" s="124"/>
-    </row>
-    <row r="32" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119">
-        <v>0.5</v>
-      </c>
-      <c r="K32" s="119">
-        <v>2</v>
-      </c>
-      <c r="L32" s="120"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="119">
-        <v>35</v>
-      </c>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="108"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="111">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="W32" s="124"/>
-    </row>
-    <row r="33" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="119">
-        <v>8</v>
-      </c>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="108"/>
-      <c r="S33" s="108"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="111">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W33" s="124"/>
-    </row>
-    <row r="34" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="119">
-        <v>8</v>
-      </c>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="108"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="111">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W34" s="124"/>
-    </row>
-    <row r="35" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="124"/>
-    </row>
-    <row r="36" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119">
-        <v>3</v>
-      </c>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="119"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="119"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="111">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W36" s="124"/>
-    </row>
-    <row r="37" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="119">
-        <v>6</v>
-      </c>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="108"/>
-      <c r="S37" s="108"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="121"/>
-      <c r="V37" s="111">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W37" s="124"/>
-    </row>
-    <row r="38" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="108"/>
-      <c r="S38" s="108">
-        <v>100</v>
-      </c>
-      <c r="T38" s="116"/>
-      <c r="U38" s="121"/>
-      <c r="V38" s="111">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="W38" s="124"/>
-    </row>
-    <row r="39" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="121"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="121"/>
-      <c r="V39" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="124"/>
-    </row>
-    <row r="40" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119">
-        <v>39.5</v>
-      </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="121"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="121"/>
-      <c r="V40" s="111">
-        <f t="shared" si="1"/>
-        <v>39.5</v>
-      </c>
-      <c r="W40" s="124"/>
-    </row>
-    <row r="41" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="121"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="121"/>
-      <c r="V41" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="124"/>
-    </row>
-    <row r="42" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="119"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="108"/>
-      <c r="S42" s="108"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="121"/>
-      <c r="V42" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="124"/>
-    </row>
-    <row r="43" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="119"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="108"/>
-      <c r="S43" s="108"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="124"/>
-    </row>
-    <row r="44" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="108"/>
-      <c r="S44" s="108"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="124"/>
-    </row>
-    <row r="45" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="121"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="116"/>
-      <c r="U45" s="121"/>
-      <c r="V45" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="124"/>
-    </row>
-    <row r="46" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="121"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="108"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="121"/>
-      <c r="V46" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="124"/>
-    </row>
-    <row r="47" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="121"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="121"/>
-      <c r="V47" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="124"/>
-    </row>
-    <row r="48" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="116"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="124"/>
-    </row>
-    <row r="49" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="122"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="116"/>
-      <c r="U49" s="121"/>
-      <c r="V49" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="124"/>
-    </row>
-    <row r="50" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="121"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="122"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="108"/>
-      <c r="S50" s="108"/>
-      <c r="T50" s="116"/>
-      <c r="U50" s="121"/>
-      <c r="V50" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="124"/>
-    </row>
-    <row r="51" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="121"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="122"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="108"/>
-      <c r="S51" s="108"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="121"/>
-      <c r="V51" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="124"/>
-    </row>
-    <row r="52" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="121"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="122"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="116"/>
-      <c r="U52" s="121"/>
-      <c r="V52" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="124"/>
-    </row>
-    <row r="53" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="122"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="116"/>
-      <c r="U53" s="121"/>
-      <c r="V53" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="124"/>
-    </row>
-    <row r="54" spans="2:23" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="121"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="108"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="121"/>
-      <c r="V54" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="124"/>
-    </row>
-    <row r="55" spans="2:23" s="99" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="121"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="108"/>
-      <c r="S55" s="108"/>
-      <c r="T55" s="116"/>
-      <c r="U55" s="121"/>
-      <c r="V55" s="111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="124"/>
-    </row>
-    <row r="56" spans="2:23" s="99" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="126"/>
-      <c r="D56" s="127">
-        <f>SUM(D8:D55)</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="127">
-        <f t="shared" ref="E56:P56" si="4">SUM(E8:E55)</f>
-        <v>45.5</v>
-      </c>
-      <c r="F56" s="127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="127">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="127">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="K56" s="127">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L56" s="128">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="M56" s="95"/>
-      <c r="N56" s="129">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="127">
-        <f t="shared" si="4"/>
-        <v>207</v>
-      </c>
-      <c r="P56" s="130">
-        <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="Q56" s="127"/>
-      <c r="R56" s="131">
-        <f>SUM(R8:R55)</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="131">
-        <f>SUM(S8:S55)</f>
-        <v>191</v>
-      </c>
-      <c r="T56" s="131">
-        <f>SUM(T8:T55)</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="129"/>
-      <c r="V56" s="132">
-        <f>SUM(V8:V55)</f>
-        <v>482</v>
-      </c>
-      <c r="W56" s="124"/>
-    </row>
-    <row r="57" spans="2:23" s="133" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="134"/>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="134"/>
-      <c r="O57" s="134"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="134"/>
-      <c r="R57" s="134"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="134"/>
-      <c r="U57" s="134"/>
-      <c r="V57" s="136"/>
-      <c r="W57" s="134"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:T6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB1E213-AB99-479F-8C2D-AF848A7C2997}">
   <dimension ref="B2:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7404,7 +7364,7 @@
     <col min="11" max="11" width="1.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="80" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="78" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="5" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="5"/>
     <col min="19" max="19" width="2.28515625" style="5" customWidth="1"/>
@@ -7413,71 +7373,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="str">
+      <c r="B3" s="141" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -7486,41 +7446,41 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="173" t="s">
+      <c r="J6" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="172" t="s">
+      <c r="L6" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="P6" s="172" t="s">
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="P6" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
       <c r="T6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="169" t="s">
+      <c r="V6" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="171"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="163"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -7540,15 +7500,15 @@
       <c r="H7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
       <c r="L7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="77" t="s">
+      <c r="N7" s="75" t="s">
         <v>115</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -7591,7 +7551,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="78"/>
+      <c r="N8" s="76"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="7"/>
@@ -7618,7 +7578,7 @@
         <v>70</v>
       </c>
       <c r="M9" s="45"/>
-      <c r="N9" s="79">
+      <c r="N9" s="77">
         <f>IF(L9&gt;0,IF(M9&gt;0,L9-M9,0),0)</f>
         <v>0</v>
       </c>
@@ -7626,7 +7586,7 @@
       <c r="Q9" s="2">
         <v>13</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="77">
         <f t="shared" ref="R9:R25" si="0">IF(P9&gt;0,IF(Q9&gt;0,P9-Q9,0),0)</f>
         <v>0</v>
       </c>
@@ -7664,7 +7624,7 @@
       <c r="M10" s="45">
         <v>12</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="77">
         <f t="shared" ref="N10:N27" si="1">IF(L10&gt;0,IF(M10&gt;0,L10-M10,0),0)</f>
         <v>20</v>
       </c>
@@ -7672,7 +7632,7 @@
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="79">
+      <c r="R10" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7705,7 +7665,7 @@
       <c r="M11" s="45">
         <v>2</v>
       </c>
-      <c r="N11" s="79">
+      <c r="N11" s="77">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -7713,7 +7673,7 @@
       <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="R11" s="79">
+      <c r="R11" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7746,7 +7706,7 @@
       <c r="M12" s="45">
         <v>2</v>
       </c>
-      <c r="N12" s="79">
+      <c r="N12" s="77">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -7754,7 +7714,7 @@
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="79">
+      <c r="R12" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7783,13 +7743,13 @@
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="79">
+      <c r="N13" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="79">
+      <c r="R13" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7824,7 +7784,7 @@
       <c r="M14" s="45">
         <v>9</v>
       </c>
-      <c r="N14" s="79">
+      <c r="N14" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7832,7 +7792,7 @@
       <c r="Q14" s="2">
         <v>4</v>
       </c>
-      <c r="R14" s="79">
+      <c r="R14" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7861,7 +7821,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="79">
+      <c r="N15" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7869,7 +7829,7 @@
       <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="R15" s="79">
+      <c r="R15" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7902,13 +7862,13 @@
       <c r="M16" s="46">
         <v>4</v>
       </c>
-      <c r="N16" s="79">
+      <c r="N16" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="79">
+      <c r="R16" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7937,13 +7897,13 @@
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="79">
+      <c r="N17" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="79">
+      <c r="R17" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7978,7 +7938,7 @@
       <c r="M18" s="46">
         <v>25</v>
       </c>
-      <c r="N18" s="79">
+      <c r="N18" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7986,7 +7946,7 @@
       <c r="Q18" s="2">
         <v>5</v>
       </c>
-      <c r="R18" s="79">
+      <c r="R18" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8021,7 +7981,7 @@
       <c r="M19" s="46">
         <v>14</v>
       </c>
-      <c r="N19" s="79">
+      <c r="N19" s="77">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -8029,7 +7989,7 @@
       <c r="Q19" s="2">
         <v>9</v>
       </c>
-      <c r="R19" s="79">
+      <c r="R19" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8058,7 +8018,7 @@
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="79">
+      <c r="N20" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8066,7 +8026,7 @@
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="79">
+      <c r="R20" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8095,7 +8055,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="79">
+      <c r="N21" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8103,7 +8063,7 @@
       <c r="Q21" s="2">
         <v>4</v>
       </c>
-      <c r="R21" s="79">
+      <c r="R21" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8132,13 +8092,13 @@
       <c r="J22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="79">
+      <c r="N22" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="79">
+      <c r="R22" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8164,7 +8124,7 @@
       <c r="J23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="79">
+      <c r="N23" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8172,7 +8132,7 @@
       <c r="Q23" s="2">
         <v>17</v>
       </c>
-      <c r="R23" s="79">
+      <c r="R23" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8201,13 +8161,13 @@
       <c r="J24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="79">
+      <c r="N24" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="79">
+      <c r="R24" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8238,7 +8198,7 @@
       <c r="J25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="79">
+      <c r="N25" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8246,7 +8206,7 @@
       <c r="Q25" s="2">
         <v>2</v>
       </c>
-      <c r="R25" s="79">
+      <c r="R25" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8273,7 +8233,7 @@
       <c r="J26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="79">
+      <c r="N26" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8300,7 +8260,7 @@
       <c r="J27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="45"/>
-      <c r="N27" s="79">
+      <c r="N27" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8362,7 +8322,7 @@
         <f>SUM(M8:M25)</f>
         <v>68</v>
       </c>
-      <c r="N29" s="81">
+      <c r="N29" s="79">
         <f t="shared" ref="N29" si="5">IF(L29=0,0,(M29-L29)/L29)</f>
         <v>-0.67307692307692313</v>
       </c>
@@ -8429,7 +8389,7 @@
   <dimension ref="B2:X23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C9" sqref="C9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,68 +8414,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="str">
+      <c r="B3" s="141" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -8524,38 +8484,38 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="173" t="s">
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="172" t="s">
+      <c r="K6" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="O6" s="172" t="s">
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="O6" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
       <c r="S6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="169" t="s">
+      <c r="U6" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="171"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="163"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -8572,8 +8532,8 @@
       <c r="G7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>

--- a/hiqu/HR/Performance Evaluation/November 2024/Dev/Arslan Khalid.xlsx
+++ b/hiqu/HR/Performance Evaluation/November 2024/Dev/Arslan Khalid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F77375-4DE2-4D1A-B6EC-2BA11FC49850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99203553-CA9E-458F-871D-D71BD2006B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="145">
   <si>
     <t>Employee Name</t>
   </si>
@@ -455,6 +455,27 @@
   </si>
   <si>
     <t>Release</t>
+  </si>
+  <si>
+    <t>AI Usage</t>
+  </si>
+  <si>
+    <t>Review Spec</t>
+  </si>
+  <si>
+    <t>Backend Development</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Code Snipets</t>
   </si>
 </sst>
 </file>
@@ -858,7 +879,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -978,7 +999,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,6 +1309,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3347,18 +3371,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
     </row>
@@ -3366,11 +3390,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3378,11 +3402,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3390,11 +3414,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3402,11 +3426,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3414,11 +3438,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3426,12 +3450,12 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="130">
+      <c r="C10" s="129">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>0.55890410958904113</v>
-      </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+        <v>0.58082191780821912</v>
+      </c>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -3439,11 +3463,11 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3727,7 +3751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49913367-0C81-47D2-A602-F183CADA5D5D}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3738,13 +3762,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -3761,12 +3785,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
@@ -3786,13 +3810,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
@@ -3899,13 +3923,13 @@
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
@@ -3995,13 +4019,13 @@
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="136"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="36" t="s">
@@ -4121,6 +4145,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7EABA8F8-B697-472A-8540-22408F11765B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88A21638-A94D-4766-8B0A-92731ACFA2C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4237,34 +4289,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88A21638-A94D-4766-8B0A-92731ACFA2C5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4313,6 +4337,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>C24:C31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88A21638-A94D-4766-8B0A-92731ACFA2C5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D16:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA0C51F5-D05B-4CB3-B10C-54EF65E8F66F}">
@@ -4434,36 +4488,6 @@
           </x14:cfRule>
           <xm:sqref>F24:F31</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88A21638-A94D-4766-8B0A-92731ACFA2C5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D7:D14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD212CF6-1C12-48C6-97A4-EC4A3D83CB49}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D16:D21</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4479,7 +4503,7 @@
       <selection activeCell="C45" sqref="C45"/>
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4495,7 +4519,7 @@
     <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="5"/>
     <col min="15" max="15" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="77" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -4506,1752 +4530,1752 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-    </row>
-    <row r="6" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="86" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+    </row>
+    <row r="6" spans="2:23" s="93" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89" t="s">
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="149" t="s">
+      <c r="L6" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="90"/>
-      <c r="N6" s="146" t="s">
+      <c r="M6" s="89"/>
+      <c r="N6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="151" t="s">
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="93" t="s">
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="92"/>
-    </row>
-    <row r="7" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="95" t="s">
+      <c r="W6" s="91"/>
+    </row>
+    <row r="7" spans="2:23" s="93" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="88" t="s">
+      <c r="K7" s="147"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="91" t="s">
+      <c r="O7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="91" t="s">
+      <c r="Q7" s="91"/>
+      <c r="R7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="91" t="s">
+      <c r="S7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="91" t="s">
+      <c r="T7" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="92"/>
-      <c r="V7" s="99" t="s">
+      <c r="U7" s="91"/>
+      <c r="V7" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="W7" s="92"/>
-    </row>
-    <row r="8" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="91"/>
+    </row>
+    <row r="8" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="105">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="104">
         <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
         <v>0</v>
       </c>
-      <c r="W8" s="92"/>
-    </row>
-    <row r="9" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="91"/>
+    </row>
+    <row r="9" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="85">
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="84">
         <f>IF(N9&gt;0,N9-O9,0)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103">
+      <c r="Q9" s="91"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102">
         <v>3</v>
       </c>
-      <c r="T9" s="109">
+      <c r="T9" s="108">
         <f>IF(R9=0,0,(S9-R9))</f>
         <v>0</v>
       </c>
-      <c r="U9" s="110"/>
-      <c r="V9" s="105">
+      <c r="U9" s="109"/>
+      <c r="V9" s="104">
         <f t="shared" ref="V9:V48" si="0">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
         <v>3</v>
       </c>
-      <c r="W9" s="92"/>
-    </row>
-    <row r="10" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="91"/>
+    </row>
+    <row r="10" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="85">
+      <c r="C10" s="99"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="84">
         <f t="shared" ref="P10:P47" si="1">IF(N10&gt;0,N10-O10,0)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="109">
+      <c r="Q10" s="91"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="108">
         <f t="shared" ref="T10:T43" si="2">IF(R10=0,0,(S10-R10))</f>
         <v>0</v>
       </c>
-      <c r="U10" s="110"/>
-      <c r="V10" s="105">
+      <c r="U10" s="109"/>
+      <c r="V10" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="92"/>
-    </row>
-    <row r="11" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="91"/>
+    </row>
+    <row r="11" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="101">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="100">
         <v>70</v>
       </c>
-      <c r="O11" s="103"/>
-      <c r="P11" s="85">
+      <c r="O11" s="102"/>
+      <c r="P11" s="84">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103">
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102">
         <v>27</v>
       </c>
-      <c r="T11" s="109">
+      <c r="T11" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="101"/>
-      <c r="V11" s="105">
+      <c r="U11" s="100"/>
+      <c r="V11" s="104">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="W11" s="103"/>
-    </row>
-    <row r="12" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="102"/>
+    </row>
+    <row r="12" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101">
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100">
         <v>1</v>
       </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="101">
+      <c r="K12" s="102"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="100">
         <v>32</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="102">
         <v>12</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="84">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103">
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102">
         <v>13</v>
       </c>
-      <c r="T12" s="109">
+      <c r="T12" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="101"/>
-      <c r="V12" s="105">
+      <c r="U12" s="100"/>
+      <c r="V12" s="104">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="W12" s="103"/>
-    </row>
-    <row r="13" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="102"/>
+    </row>
+    <row r="13" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="101">
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="100">
         <v>62</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="102">
         <v>5</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="84">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="109">
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="105">
+      <c r="U13" s="100"/>
+      <c r="V13" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W13" s="103"/>
-    </row>
-    <row r="14" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="102"/>
+    </row>
+    <row r="14" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="112">
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="111">
         <v>2</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103">
+      <c r="Q14" s="111"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102">
         <v>3</v>
       </c>
-      <c r="T14" s="109">
+      <c r="T14" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14" s="114"/>
-      <c r="V14" s="105">
+      <c r="U14" s="113"/>
+      <c r="V14" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W14" s="112"/>
-    </row>
-    <row r="15" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="111"/>
+    </row>
+    <row r="15" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="114">
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="113">
         <v>30</v>
       </c>
-      <c r="O15" s="112">
+      <c r="O15" s="111">
         <v>6</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="84">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103">
+      <c r="Q15" s="91"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102">
         <v>5</v>
       </c>
-      <c r="T15" s="109">
+      <c r="T15" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15" s="92"/>
-      <c r="V15" s="105">
+      <c r="U15" s="91"/>
+      <c r="V15" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W15" s="92"/>
-    </row>
-    <row r="16" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="91"/>
+    </row>
+    <row r="16" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114">
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113">
         <v>3</v>
       </c>
-      <c r="L16" s="115">
+      <c r="L16" s="114">
         <v>13</v>
       </c>
-      <c r="M16" s="90"/>
-      <c r="N16" s="114">
+      <c r="M16" s="89"/>
+      <c r="N16" s="113">
         <v>56</v>
       </c>
-      <c r="O16" s="112">
+      <c r="O16" s="111">
         <v>9</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="84">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103">
+      <c r="Q16" s="91"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102">
         <v>4</v>
       </c>
-      <c r="T16" s="109">
+      <c r="T16" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="92"/>
-      <c r="V16" s="105">
+      <c r="U16" s="91"/>
+      <c r="V16" s="104">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="W16" s="92"/>
-    </row>
-    <row r="17" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
+      <c r="W16" s="91"/>
+    </row>
+    <row r="17" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
       <c r="C17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="112">
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="111">
         <v>4</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="109">
+      <c r="Q17" s="91"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="92"/>
-      <c r="V17" s="105">
+      <c r="U17" s="91"/>
+      <c r="V17" s="104">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W17" s="92"/>
-    </row>
-    <row r="18" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
+      <c r="W17" s="91"/>
+    </row>
+    <row r="18" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="99"/>
       <c r="C18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114">
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113">
         <v>2</v>
       </c>
-      <c r="L18" s="115">
+      <c r="L18" s="114">
         <v>6</v>
       </c>
-      <c r="M18" s="90"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="112">
+      <c r="M18" s="89"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="111">
         <v>25</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103">
+      <c r="Q18" s="91"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102">
         <v>8</v>
       </c>
-      <c r="T18" s="109">
+      <c r="T18" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="92"/>
-      <c r="V18" s="105">
+      <c r="U18" s="91"/>
+      <c r="V18" s="104">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="W18" s="92"/>
-    </row>
-    <row r="19" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="91"/>
+    </row>
+    <row r="19" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114">
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113">
         <v>1</v>
       </c>
-      <c r="L19" s="115"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="112">
+      <c r="L19" s="114"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="111">
         <v>14</v>
       </c>
-      <c r="P19" s="85">
+      <c r="P19" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103">
+      <c r="Q19" s="91"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102">
         <v>9</v>
       </c>
-      <c r="T19" s="109">
+      <c r="T19" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="92"/>
-      <c r="V19" s="105">
+      <c r="U19" s="91"/>
+      <c r="V19" s="104">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="W19" s="92"/>
-    </row>
-    <row r="20" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="91"/>
+    </row>
+    <row r="20" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="85">
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103">
+      <c r="Q20" s="91"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102">
         <v>2</v>
       </c>
-      <c r="T20" s="109">
+      <c r="T20" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20" s="92"/>
-      <c r="V20" s="105">
+      <c r="U20" s="91"/>
+      <c r="V20" s="104">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="W20" s="92"/>
-    </row>
-    <row r="21" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="91"/>
+    </row>
+    <row r="21" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="85">
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103">
+      <c r="Q21" s="111"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102">
         <v>12</v>
       </c>
-      <c r="T21" s="109">
+      <c r="T21" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="114"/>
-      <c r="V21" s="105">
+      <c r="U21" s="113"/>
+      <c r="V21" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W21" s="116"/>
-    </row>
-    <row r="22" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="115"/>
+    </row>
+    <row r="22" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="112">
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="111">
         <v>3</v>
       </c>
-      <c r="P22" s="85">
+      <c r="P22" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="109">
+      <c r="Q22" s="111"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="114"/>
-      <c r="V22" s="105">
+      <c r="U22" s="113"/>
+      <c r="V22" s="104">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="W22" s="116"/>
-    </row>
-    <row r="23" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="115"/>
+    </row>
+    <row r="23" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112">
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111">
         <v>1</v>
       </c>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="112">
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="111">
         <v>10</v>
       </c>
-      <c r="P23" s="85">
+      <c r="P23" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="109">
+      <c r="Q23" s="111"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="114"/>
-      <c r="V23" s="105">
+      <c r="U23" s="113"/>
+      <c r="V23" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="W23" s="116"/>
-    </row>
-    <row r="24" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="115"/>
+    </row>
+    <row r="24" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111">
         <v>6</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="112">
+      <c r="L24" s="112"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="111">
         <v>5</v>
       </c>
-      <c r="P24" s="85">
+      <c r="P24" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103">
+      <c r="Q24" s="111"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102">
         <v>2</v>
       </c>
-      <c r="T24" s="109">
+      <c r="T24" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="114"/>
-      <c r="V24" s="105">
+      <c r="U24" s="113"/>
+      <c r="V24" s="104">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W24" s="116"/>
-    </row>
-    <row r="25" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="115"/>
+    </row>
+    <row r="25" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="85">
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="109">
+      <c r="Q25" s="111"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="114"/>
-      <c r="V25" s="105">
+      <c r="U25" s="113"/>
+      <c r="V25" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W25" s="116"/>
-    </row>
-    <row r="26" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="115"/>
+    </row>
+    <row r="26" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112">
+      <c r="D26" s="111"/>
+      <c r="E26" s="111">
         <v>3</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="85">
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="109">
+      <c r="Q26" s="111"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="114"/>
-      <c r="V26" s="105">
+      <c r="U26" s="113"/>
+      <c r="V26" s="104">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="W26" s="116"/>
-    </row>
-    <row r="27" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="115"/>
+    </row>
+    <row r="27" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112">
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111">
         <v>0.5</v>
       </c>
-      <c r="K27" s="112">
+      <c r="K27" s="111">
         <v>2</v>
       </c>
-      <c r="L27" s="113"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="114">
+      <c r="L27" s="112"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="113">
         <v>40</v>
       </c>
-      <c r="O27" s="112">
+      <c r="O27" s="111">
         <v>35</v>
       </c>
-      <c r="P27" s="85">
+      <c r="P27" s="84">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="109">
+      <c r="Q27" s="111"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="114"/>
-      <c r="V27" s="105">
+      <c r="U27" s="113"/>
+      <c r="V27" s="104">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="W27" s="116"/>
-    </row>
-    <row r="28" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W27" s="115"/>
+    </row>
+    <row r="28" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="114">
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="113">
         <v>6</v>
       </c>
-      <c r="O28" s="112">
+      <c r="O28" s="111">
         <v>8</v>
       </c>
-      <c r="P28" s="85">
+      <c r="P28" s="84">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="109">
+      <c r="Q28" s="111"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="114"/>
-      <c r="V28" s="105">
+      <c r="U28" s="113"/>
+      <c r="V28" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W28" s="116"/>
-    </row>
-    <row r="29" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="115"/>
+    </row>
+    <row r="29" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="114">
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="113">
         <v>12</v>
       </c>
-      <c r="O29" s="112">
+      <c r="O29" s="111">
         <v>8</v>
       </c>
-      <c r="P29" s="85">
+      <c r="P29" s="84">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="109">
+      <c r="Q29" s="111"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="114"/>
-      <c r="V29" s="105">
+      <c r="U29" s="113"/>
+      <c r="V29" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W29" s="116"/>
-    </row>
-    <row r="30" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W29" s="115"/>
+    </row>
+    <row r="30" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="85">
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="109">
+      <c r="Q30" s="111"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="114"/>
-      <c r="V30" s="105">
+      <c r="U30" s="113"/>
+      <c r="V30" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W30" s="116"/>
-    </row>
-    <row r="31" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="115"/>
+    </row>
+    <row r="31" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="85">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103">
+      <c r="Q31" s="111"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102">
         <v>21</v>
       </c>
-      <c r="T31" s="109">
+      <c r="T31" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U31" s="114"/>
-      <c r="V31" s="105">
+      <c r="U31" s="113"/>
+      <c r="V31" s="104">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W31" s="116"/>
-    </row>
-    <row r="32" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W31" s="115"/>
+    </row>
+    <row r="32" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="85">
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="109">
+      <c r="Q32" s="111"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U32" s="114"/>
-      <c r="V32" s="105">
+      <c r="U32" s="113"/>
+      <c r="V32" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W32" s="116"/>
-    </row>
-    <row r="33" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W32" s="115"/>
+    </row>
+    <row r="33" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="112"/>
-      <c r="P33" s="85">
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103">
+      <c r="Q33" s="111"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102">
         <v>37.5</v>
       </c>
-      <c r="T33" s="109">
+      <c r="T33" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U33" s="114"/>
-      <c r="V33" s="105">
+      <c r="U33" s="113"/>
+      <c r="V33" s="104">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="W33" s="116"/>
-    </row>
-    <row r="34" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W33" s="115"/>
+    </row>
+    <row r="34" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="85">
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="109">
+      <c r="Q34" s="111"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U34" s="114"/>
-      <c r="V34" s="105">
+      <c r="U34" s="113"/>
+      <c r="V34" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W34" s="116"/>
-    </row>
-    <row r="35" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W34" s="115"/>
+    </row>
+    <row r="35" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="113"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="112"/>
-      <c r="P35" s="85">
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="109">
+      <c r="Q35" s="111"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U35" s="114"/>
-      <c r="V35" s="105">
+      <c r="U35" s="113"/>
+      <c r="V35" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W35" s="116"/>
-    </row>
-    <row r="36" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W35" s="115"/>
+    </row>
+    <row r="36" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="85">
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="109">
+      <c r="Q36" s="111"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U36" s="114"/>
-      <c r="V36" s="105">
+      <c r="U36" s="113"/>
+      <c r="V36" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W36" s="116"/>
-    </row>
-    <row r="37" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="115"/>
+    </row>
+    <row r="37" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="113"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="85">
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="109">
+      <c r="Q37" s="111"/>
+      <c r="R37" s="102"/>
+      <c r="S37" s="102"/>
+      <c r="T37" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U37" s="114"/>
-      <c r="V37" s="105">
+      <c r="U37" s="113"/>
+      <c r="V37" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W37" s="116"/>
-    </row>
-    <row r="38" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="115"/>
+    </row>
+    <row r="38" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="113"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="112"/>
-      <c r="P38" s="85">
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="109">
+      <c r="Q38" s="111"/>
+      <c r="R38" s="102"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U38" s="114"/>
-      <c r="V38" s="105">
+      <c r="U38" s="113"/>
+      <c r="V38" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W38" s="116"/>
-    </row>
-    <row r="39" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="115"/>
+    </row>
+    <row r="39" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="85">
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="109">
+      <c r="Q39" s="111"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U39" s="114"/>
-      <c r="V39" s="105">
+      <c r="U39" s="113"/>
+      <c r="V39" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W39" s="116"/>
-    </row>
-    <row r="40" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="115"/>
+    </row>
+    <row r="40" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="85">
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="111"/>
+      <c r="P40" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="109">
+      <c r="Q40" s="111"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U40" s="114"/>
-      <c r="V40" s="105">
+      <c r="U40" s="113"/>
+      <c r="V40" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W40" s="116"/>
-    </row>
-    <row r="41" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="115"/>
+    </row>
+    <row r="41" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="85">
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="109">
+      <c r="Q41" s="111"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="102"/>
+      <c r="T41" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U41" s="114"/>
-      <c r="V41" s="105">
+      <c r="U41" s="113"/>
+      <c r="V41" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W41" s="116"/>
-    </row>
-    <row r="42" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="115"/>
+    </row>
+    <row r="42" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="85">
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="113"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="109">
+      <c r="Q42" s="111"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="102"/>
+      <c r="T42" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U42" s="114"/>
-      <c r="V42" s="105">
+      <c r="U42" s="113"/>
+      <c r="V42" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W42" s="116"/>
-    </row>
-    <row r="43" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W42" s="115"/>
+    </row>
+    <row r="43" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="85">
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="109">
+      <c r="Q43" s="111"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="102"/>
+      <c r="T43" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43" s="114"/>
-      <c r="V43" s="105">
+      <c r="U43" s="113"/>
+      <c r="V43" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W43" s="116"/>
-    </row>
-    <row r="44" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W43" s="115"/>
+    </row>
+    <row r="44" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="114"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="85">
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="113"/>
+      <c r="O44" s="111"/>
+      <c r="P44" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="109"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="105">
+      <c r="Q44" s="111"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="102"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W44" s="116"/>
-    </row>
-    <row r="45" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="115"/>
+    </row>
+    <row r="45" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="85">
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="105">
+      <c r="Q45" s="111"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="113"/>
+      <c r="V45" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W45" s="116"/>
-    </row>
-    <row r="46" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W45" s="115"/>
+    </row>
+    <row r="46" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="112"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="114"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="85">
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="113"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="112"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="105">
+      <c r="Q46" s="111"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="113"/>
+      <c r="V46" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W46" s="116"/>
-    </row>
-    <row r="47" spans="2:23" s="94" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W46" s="115"/>
+    </row>
+    <row r="47" spans="2:23" s="93" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="85">
+      <c r="C47" s="99"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="112"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="109"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="105">
+      <c r="Q47" s="111"/>
+      <c r="R47" s="102"/>
+      <c r="S47" s="102"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W47" s="116"/>
-    </row>
-    <row r="48" spans="2:23" s="94" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="114"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="85">
+      <c r="W47" s="115"/>
+    </row>
+    <row r="48" spans="2:23" s="93" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="84">
         <f>N48-O48</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="112"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="105">
+      <c r="Q48" s="111"/>
+      <c r="R48" s="102"/>
+      <c r="S48" s="102"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="104">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W48" s="116"/>
-    </row>
-    <row r="49" spans="2:23" s="94" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="117" t="s">
+      <c r="W48" s="115"/>
+    </row>
+    <row r="49" spans="2:23" s="93" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119">
+      <c r="C49" s="117"/>
+      <c r="D49" s="118">
         <f>SUM(D8:D48)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="119">
+      <c r="E49" s="118">
         <f t="shared" ref="E49:P49" si="3">SUM(E8:E48)</f>
         <v>3</v>
       </c>
-      <c r="F49" s="119">
+      <c r="F49" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G49" s="119">
+      <c r="G49" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H49" s="119">
+      <c r="H49" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I49" s="119">
+      <c r="I49" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J49" s="119">
+      <c r="J49" s="118">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="K49" s="119">
+      <c r="K49" s="118">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="L49" s="120">
+      <c r="L49" s="119">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M49" s="90"/>
-      <c r="N49" s="121">
+      <c r="M49" s="89"/>
+      <c r="N49" s="120">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="O49" s="119">
+      <c r="O49" s="118">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
-      <c r="P49" s="122">
+      <c r="P49" s="121">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="123">
+      <c r="Q49" s="118"/>
+      <c r="R49" s="122">
         <f>SUM(R8:R48)</f>
         <v>0</v>
       </c>
-      <c r="S49" s="123">
+      <c r="S49" s="122">
         <f>SUM(S8:S48)</f>
         <v>146.5</v>
       </c>
-      <c r="T49" s="123">
+      <c r="T49" s="122">
         <f>SUM(T8:T48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="121"/>
-      <c r="V49" s="124">
+      <c r="U49" s="120"/>
+      <c r="V49" s="123">
         <f>SUM(V8:V48)</f>
         <v>331</v>
       </c>
-      <c r="W49" s="116"/>
-    </row>
-    <row r="50" spans="2:23" s="125" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="126"/>
-      <c r="K50" s="126"/>
-      <c r="L50" s="126"/>
-      <c r="M50" s="126"/>
-      <c r="N50" s="126"/>
-      <c r="O50" s="126"/>
-      <c r="P50" s="127"/>
-      <c r="Q50" s="126"/>
-      <c r="R50" s="126"/>
-      <c r="S50" s="126"/>
-      <c r="T50" s="126"/>
-      <c r="U50" s="126"/>
-      <c r="V50" s="128"/>
-      <c r="W50" s="126"/>
+      <c r="W49" s="115"/>
+    </row>
+    <row r="50" spans="2:23" s="124" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="126"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
+      <c r="U50" s="125"/>
+      <c r="V50" s="127"/>
+      <c r="W50" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6270,14 +6294,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7711944-9C3B-4B01-99AE-D20CEF7A29FD}">
-  <dimension ref="B2:Y37"/>
+  <dimension ref="B2:AD37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C45" sqref="C45"/>
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6285,1058 +6309,1227 @@
     <col min="1" max="1" width="9.140625" style="50"/>
     <col min="2" max="2" width="12.7109375" style="50" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="51"/>
-    <col min="5" max="5" width="11.7109375" style="51" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="51" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="51" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="51" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="51" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="51" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="82" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" style="51" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="51"/>
-    <col min="19" max="19" width="2.28515625" style="51" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="49"/>
-    <col min="21" max="21" width="2.140625" style="50" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="50"/>
+    <col min="4" max="8" width="12.28515625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="51"/>
+    <col min="10" max="10" width="11.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="51" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="51" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="51" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="51" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="51" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="81" customWidth="1"/>
+    <col min="20" max="20" width="1.85546875" style="51" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="51"/>
+    <col min="24" max="24" width="2.28515625" style="51" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="49"/>
+    <col min="26" max="26" width="2.140625" style="50" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="155" t="s">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B2" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="156" t="str">
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="155" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="D5" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="55" t="s">
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="159" t="s">
+      <c r="N6" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="O6" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="158" t="s">
+      <c r="Q6" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="P6" s="158" t="s">
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="U6" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="158"/>
-      <c r="R6" s="158"/>
-      <c r="T6" s="56" t="s">
+      <c r="V6" s="157"/>
+      <c r="W6" s="157"/>
+      <c r="Y6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="152" t="s">
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="154"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="153"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="J7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="K7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="L7" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="M7" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="L7" s="54" t="s">
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="Q7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="S7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="U7" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54" t="s">
+      <c r="V7" s="53"/>
+      <c r="W7" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="60" t="s">
+      <c r="Y7" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="54" t="s">
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="54" t="s">
+      <c r="AB7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="X7" s="54" t="s">
+      <c r="AC7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="54" t="s">
+      <c r="AD7" s="53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="81"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="63"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="80"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
       <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
       <c r="Y8" s="64"/>
-    </row>
-    <row r="9" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="63"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="85">
-        <f>IF(L9&gt;0,L9-M9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="63">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="84">
+        <f>IF(Q9&gt;0,Q9-R9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="62">
+        <v>0</v>
+      </c>
+      <c r="V9" s="62">
         <v>3</v>
       </c>
-      <c r="R9" s="85"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="65">
-        <f>D9+E9+F9+G9+H9+I9+J9+M9+Q9</f>
+      <c r="W9" s="84"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="64">
+        <f>I9+J9+K9+L9+M9+N9+O9+R9+V9</f>
         <v>3</v>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="63">
-        <v>0</v>
-      </c>
-      <c r="W9" s="63">
-        <v>0</v>
-      </c>
-      <c r="X9" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="64">
-        <f>SUM(V9:X9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="63">
+        <f>SUM(AA9:AC9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="84">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="83">
         <v>6</v>
       </c>
-      <c r="N10" s="85">
-        <f t="shared" ref="N10:N30" si="0">IF(L10&gt;0,L10-M10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63">
+      <c r="S10" s="84">
+        <f t="shared" ref="S10:S30" si="0">IF(Q10&gt;0,Q10-R10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62">
         <v>5</v>
       </c>
-      <c r="R10" s="85">
-        <f t="shared" ref="R10" si="1">P10-Q10</f>
+      <c r="W10" s="84">
+        <f t="shared" ref="W10" si="1">U10-V10</f>
         <v>-5</v>
       </c>
-      <c r="S10" s="66"/>
-      <c r="T10" s="65">
-        <f t="shared" ref="T10:T30" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="64">
+        <f t="shared" ref="Y10:Y30" si="2">I10+J10+K10+L10+M10+N10+O10+R10+V10</f>
         <v>11</v>
       </c>
-      <c r="U10" s="51"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="64"/>
-    </row>
-    <row r="11" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="63"/>
+    </row>
+    <row r="11" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62">
         <v>1</v>
       </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="85">
+      <c r="Q11" s="62"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63">
+      <c r="U11" s="62"/>
+      <c r="V11" s="62">
         <v>14</v>
       </c>
-      <c r="R11" s="85"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="65">
+      <c r="W11" s="84"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="64">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="64">
-        <f>SUM(V11:X11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="63">
+        <f>SUM(AA11:AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="85">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63">
+      <c r="U12" s="62"/>
+      <c r="V12" s="62">
         <v>3</v>
       </c>
-      <c r="R12" s="85"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="65">
+      <c r="W12" s="84"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="64"/>
-    </row>
-    <row r="13" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="63"/>
+    </row>
+    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="L13" s="63">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="Q13" s="62">
         <v>13</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="85">
+      <c r="R13" s="68"/>
+      <c r="S13" s="84">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63">
+      <c r="U13" s="62"/>
+      <c r="V13" s="62">
         <v>8</v>
       </c>
-      <c r="R13" s="85"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="65">
+      <c r="W13" s="84"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="64"/>
-    </row>
-    <row r="14" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="63"/>
+    </row>
+    <row r="14" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="69">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="68">
         <v>3</v>
       </c>
-      <c r="N14" s="85">
+      <c r="S14" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63">
+      <c r="U14" s="62"/>
+      <c r="V14" s="62">
         <v>3</v>
       </c>
-      <c r="R14" s="85"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="65">
+      <c r="W14" s="84"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="64">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U14" s="51"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="64"/>
-    </row>
-    <row r="15" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="63"/>
+    </row>
+    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="69">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="68">
         <v>10</v>
       </c>
-      <c r="N15" s="85">
+      <c r="S15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="65">
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="64">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U15" s="51"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="64"/>
-    </row>
-    <row r="16" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="63"/>
+    </row>
+    <row r="16" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="69">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="68">
         <v>5</v>
       </c>
-      <c r="N16" s="85">
+      <c r="S16" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63">
+      <c r="U16" s="62"/>
+      <c r="V16" s="62">
         <v>2</v>
       </c>
-      <c r="R16" s="85"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="65">
+      <c r="W16" s="84"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U16" s="51"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="64"/>
-    </row>
-    <row r="17" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="63"/>
+    </row>
+    <row r="17" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="85">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="65">
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="51"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="64"/>
-    </row>
-    <row r="18" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="63"/>
+    </row>
+    <row r="18" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="L18" s="63">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="Q18" s="62">
         <v>6</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="85">
+      <c r="R18" s="68"/>
+      <c r="S18" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="65">
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="64"/>
-    </row>
-    <row r="19" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="63"/>
+    </row>
+    <row r="19" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="69">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="68">
         <v>35</v>
       </c>
-      <c r="N19" s="85">
+      <c r="S19" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="65">
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="64">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="U19" s="51"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="64"/>
-    </row>
-    <row r="20" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="63"/>
+    </row>
+    <row r="20" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="69">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="68">
         <v>8</v>
       </c>
-      <c r="N20" s="85">
+      <c r="S20" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="65">
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U20" s="51"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="64"/>
-    </row>
-    <row r="21" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="63"/>
+    </row>
+    <row r="21" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="69">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="68">
         <v>8</v>
       </c>
-      <c r="N21" s="85">
+      <c r="S21" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="65">
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="64">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U21" s="51"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="64"/>
-    </row>
-    <row r="22" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="63"/>
+    </row>
+    <row r="22" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="67">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="66">
         <v>4</v>
       </c>
-      <c r="N22" s="85">
+      <c r="S22" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="65">
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="64">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="64"/>
-    </row>
-    <row r="23" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="63"/>
+    </row>
+    <row r="23" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62">
         <v>1</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="85">
+      <c r="Q23" s="62"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="65">
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="64">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U23" s="51"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="64"/>
-    </row>
-    <row r="24" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="63"/>
+    </row>
+    <row r="24" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="67">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="66">
         <v>3</v>
       </c>
-      <c r="N24" s="85">
+      <c r="S24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="65">
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U24" s="51"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
-    </row>
-    <row r="25" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="63"/>
+    </row>
+    <row r="25" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="85">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="65">
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="51"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
-    </row>
-    <row r="26" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="63"/>
+    </row>
+    <row r="26" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26">
         <v>3</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="85">
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="65">
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="64">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="U26" s="51"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="64"/>
-    </row>
-    <row r="27" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="63"/>
+    </row>
+    <row r="27" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62">
         <v>0.5</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="85">
+      <c r="Q27" s="62"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="65">
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="84"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="64">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="U27" s="51"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="64"/>
-    </row>
-    <row r="28" spans="2:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="63"/>
+    </row>
+    <row r="28" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="85">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="65">
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="51"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="64"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62" t="s">
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="63"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="61"/>
+      <c r="C29" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="85">
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="65">
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U29" s="51"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="64"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="62"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="85">
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="63"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="61"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="65">
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U30" s="51"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="64"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="T31" s="70"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-    </row>
-    <row r="32" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="71" t="s">
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="63"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+    </row>
+    <row r="32" spans="2:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72">
-        <f>SUM(M8:M24)</f>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71">
+        <f>SUM(R8:R24)</f>
         <v>82</v>
       </c>
-      <c r="N32" s="83">
-        <f t="shared" ref="N32" si="3">IF(L32=0,0,(M32-L32)/L32)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72">
-        <f>SUM(P8:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="72">
-        <f>SUM(Q8:Q23)</f>
+      <c r="S32" s="82">
+        <f t="shared" ref="S32" si="3">IF(Q32=0,0,(R32-Q32)/Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71">
+        <f>SUM(U8:U23)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="71">
+        <f>SUM(V8:V23)</f>
         <v>38</v>
       </c>
-      <c r="R32" s="73">
-        <f t="shared" ref="R32" si="4">IF(P32=0,0,(Q32-P32)/P32)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="72"/>
-      <c r="T32" s="74">
-        <f>SUM(T8:T30)</f>
+      <c r="W32" s="72">
+        <f t="shared" ref="W32" si="4">IF(U32=0,0,(V32-U32)/U32)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="73">
+        <f>SUM(Y8:Y30)</f>
         <v>125.5</v>
       </c>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72">
-        <f>SUM(V8:V23)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="72">
-        <f>SUM(W8:W23)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="72">
-        <f>SUM(X8:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="72">
-        <f>SUM(Y8:Y23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="20:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T37" s="51"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71">
+        <f>SUM(AA8:AA23)</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="71">
+        <f>SUM(AB8:AB23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="71">
+        <f>SUM(AC8:AC23)</f>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="71">
+        <f>SUM(AD8:AD23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="25:25" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="25:25" x14ac:dyDescent="0.2">
+      <c r="Y37" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
+  <mergeCells count="11">
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:H4 C7:H1048576 C5:D6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V30">
+  <conditionalFormatting sqref="AA9:AA30">
     <cfRule type="expression" priority="2">
-      <formula>V9/$AR9</formula>
+      <formula>AA9/$AW9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7364,7 +7557,7 @@
     <col min="11" max="11" width="1.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="78" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="77" customWidth="1"/>
     <col min="15" max="15" width="1.85546875" style="5" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="5"/>
     <col min="19" max="19" width="2.28515625" style="5" customWidth="1"/>
@@ -7373,71 +7566,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="str">
+      <c r="B3" s="140" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -7446,41 +7639,41 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
       <c r="H6" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="165" t="s">
+      <c r="J6" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="164" t="s">
+      <c r="L6" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="P6" s="164" t="s">
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="P6" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
       <c r="T6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="161" t="s">
+      <c r="V6" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="163"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="162"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -7500,15 +7693,15 @@
       <c r="H7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
       <c r="L7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="74" t="s">
         <v>115</v>
       </c>
       <c r="P7" s="10" t="s">
@@ -7551,7 +7744,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="45"/>
-      <c r="N8" s="76"/>
+      <c r="N8" s="75"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="7"/>
@@ -7578,7 +7771,7 @@
         <v>70</v>
       </c>
       <c r="M9" s="45"/>
-      <c r="N9" s="77">
+      <c r="N9" s="76">
         <f>IF(L9&gt;0,IF(M9&gt;0,L9-M9,0),0)</f>
         <v>0</v>
       </c>
@@ -7586,7 +7779,7 @@
       <c r="Q9" s="2">
         <v>13</v>
       </c>
-      <c r="R9" s="77">
+      <c r="R9" s="76">
         <f t="shared" ref="R9:R25" si="0">IF(P9&gt;0,IF(Q9&gt;0,P9-Q9,0),0)</f>
         <v>0</v>
       </c>
@@ -7624,7 +7817,7 @@
       <c r="M10" s="45">
         <v>12</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="76">
         <f t="shared" ref="N10:N27" si="1">IF(L10&gt;0,IF(M10&gt;0,L10-M10,0),0)</f>
         <v>20</v>
       </c>
@@ -7632,7 +7825,7 @@
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7665,7 +7858,7 @@
       <c r="M11" s="45">
         <v>2</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="76">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -7673,7 +7866,7 @@
       <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="R11" s="77">
+      <c r="R11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7706,7 +7899,7 @@
       <c r="M12" s="45">
         <v>2</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="76">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -7714,7 +7907,7 @@
       <c r="Q12" s="2">
         <v>1</v>
       </c>
-      <c r="R12" s="77">
+      <c r="R12" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7743,13 +7936,13 @@
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="77">
+      <c r="N13" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="77">
+      <c r="R13" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7784,7 +7977,7 @@
       <c r="M14" s="45">
         <v>9</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7792,7 +7985,7 @@
       <c r="Q14" s="2">
         <v>4</v>
       </c>
-      <c r="R14" s="77">
+      <c r="R14" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7821,7 +8014,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="77">
+      <c r="N15" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7829,7 +8022,7 @@
       <c r="Q15" s="2">
         <v>2</v>
       </c>
-      <c r="R15" s="77">
+      <c r="R15" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7862,13 +8055,13 @@
       <c r="M16" s="46">
         <v>4</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="77">
+      <c r="R16" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7897,13 +8090,13 @@
       <c r="J17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="77">
+      <c r="N17" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="77">
+      <c r="R17" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7938,7 +8131,7 @@
       <c r="M18" s="46">
         <v>25</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7946,7 +8139,7 @@
       <c r="Q18" s="2">
         <v>5</v>
       </c>
-      <c r="R18" s="77">
+      <c r="R18" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7981,7 +8174,7 @@
       <c r="M19" s="46">
         <v>14</v>
       </c>
-      <c r="N19" s="77">
+      <c r="N19" s="76">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -7989,7 +8182,7 @@
       <c r="Q19" s="2">
         <v>9</v>
       </c>
-      <c r="R19" s="77">
+      <c r="R19" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8018,7 +8211,7 @@
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="77">
+      <c r="N20" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8026,7 +8219,7 @@
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="77">
+      <c r="R20" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8055,7 +8248,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="77">
+      <c r="N21" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8063,7 +8256,7 @@
       <c r="Q21" s="2">
         <v>4</v>
       </c>
-      <c r="R21" s="77">
+      <c r="R21" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8092,13 +8285,13 @@
       <c r="J22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="77">
+      <c r="N22" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="77">
+      <c r="R22" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8124,7 +8317,7 @@
       <c r="J23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="77">
+      <c r="N23" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8132,7 +8325,7 @@
       <c r="Q23" s="2">
         <v>17</v>
       </c>
-      <c r="R23" s="77">
+      <c r="R23" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8161,13 +8354,13 @@
       <c r="J24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="77">
+      <c r="N24" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="77">
+      <c r="R24" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8198,7 +8391,7 @@
       <c r="J25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="77">
+      <c r="N25" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8206,7 +8399,7 @@
       <c r="Q25" s="2">
         <v>2</v>
       </c>
-      <c r="R25" s="77">
+      <c r="R25" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8233,7 +8426,7 @@
       <c r="J26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="46"/>
-      <c r="N26" s="77">
+      <c r="N26" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8260,7 +8453,7 @@
       <c r="J27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="45"/>
-      <c r="N27" s="77">
+      <c r="N27" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8322,7 +8515,7 @@
         <f>SUM(M8:M25)</f>
         <v>68</v>
       </c>
-      <c r="N29" s="79">
+      <c r="N29" s="78">
         <f t="shared" ref="N29" si="5">IF(L29=0,0,(M29-L29)/L29)</f>
         <v>-0.67307692307692313</v>
       </c>
@@ -8414,68 +8607,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="str">
+      <c r="B3" s="140" t="str">
         <f>Employee!C6</f>
         <v>Arslan Khalid</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -8484,38 +8677,38 @@
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="164" t="s">
+      <c r="K6" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="O6" s="164" t="s">
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="O6" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
       <c r="S6" s="30" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="161" t="s">
+      <c r="U6" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="163"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="162"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -8532,8 +8725,8 @@
       <c r="G7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
       <c r="K7" s="10" t="s">
         <v>12</v>
       </c>
